--- a/productos/scripts/productos.xlsx
+++ b/productos/scripts/productos.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Proyectos\muebles-api\productos\scripts\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\javie\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1205B76-CA6C-4D95-B0F4-C4CA2585D108}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D63D09EB-7C6F-4E53-8AB2-6CE86DF962BD}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="2340" windowWidth="21600" windowHeight="11385" xr2:uid="{2DAD7C0E-73A2-49C0-BE68-2AA18C8BDEF7}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{2DAD7C0E-73A2-49C0-BE68-2AA18C8BDEF7}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="128">
   <si>
     <t>id</t>
   </si>
@@ -93,12 +93,6 @@
     <t>cuadrado</t>
   </si>
   <si>
-    <t>modular</t>
-  </si>
-  <si>
-    <t>Modular</t>
-  </si>
-  <si>
     <t>loren</t>
   </si>
   <si>
@@ -114,27 +108,9 @@
     <t xml:space="preserve">Ropero de 2 puertas </t>
   </si>
   <si>
-    <t>Cama camara</t>
-  </si>
-  <si>
     <t>cama-camara</t>
   </si>
   <si>
-    <t>con cajonera (ambos lados)</t>
-  </si>
-  <si>
-    <t>Escritorio pata torneada</t>
-  </si>
-  <si>
-    <t>Escritorio pata tablero</t>
-  </si>
-  <si>
-    <t>escritorio-torneado</t>
-  </si>
-  <si>
-    <t>escritorio-tablero</t>
-  </si>
-  <si>
     <t>con cajonera y alzada</t>
   </si>
   <si>
@@ -144,12 +120,6 @@
     <t>alacena</t>
   </si>
   <si>
-    <t>Bajo mesa</t>
-  </si>
-  <si>
-    <t>bajo-mesa</t>
-  </si>
-  <si>
     <t>Cómoda</t>
   </si>
   <si>
@@ -165,15 +135,6 @@
     <t>chifonier</t>
   </si>
   <si>
-    <t>Cama camara s/ parrilla</t>
-  </si>
-  <si>
-    <t>cama-camara-s</t>
-  </si>
-  <si>
-    <t>sin parrilla</t>
-  </si>
-  <si>
     <t>Mesa rectangular</t>
   </si>
   <si>
@@ -279,23 +240,182 @@
     <t>con cajon</t>
   </si>
   <si>
-    <t>Mesa TV s/ cajon</t>
-  </si>
-  <si>
     <t>Mesa TV c/ cajon</t>
   </si>
   <si>
-    <t>mesa-tv-s</t>
-  </si>
-  <si>
     <t>sin cajon</t>
+  </si>
+  <si>
+    <t>https://res.cloudinary.com/dq0buor0x/image/upload/v1771638305/placar%20de%203%20puertas.png |https://res.cloudinary.com/dq0buor0x/image/upload/v1771638305/placard.png</t>
+  </si>
+  <si>
+    <t>https://res.cloudinary.com/dq0buor0x/image/upload/v1771600435/2_jquf7b.png|https://res.cloudinary.com/dq0buor0x/image/upload/v1771600421/1_vmsbi5.png| https://res.cloudinary.com/dq0buor0x/image/upload/v1771600411/WhatsApp_Image_2026-02-17_at_20.30.17_yphhgv.jpg|https://res.cloudinary.com/dq0buor0x/image/upload/v1771600411/WhatsApp_Image_2026-02-17_at_20.43.23_v3eiot.jpg</t>
+  </si>
+  <si>
+    <t>Dormitorio</t>
+  </si>
+  <si>
+    <t>Comedor</t>
+  </si>
+  <si>
+    <t>https://res.cloudinary.com/dq0buor0x/image/upload/v1771600418/1_szxji1.png|https://res.cloudinary.com/dq0buor0x/image/upload/v1771600413/2_kxt3ig.png</t>
+  </si>
+  <si>
+    <t>https://res.cloudinary.com/dq0buor0x/image/upload/v1771600418/1_xot2jh.png|https://res.cloudinary.com/dq0buor0x/image/upload/v1771600414/2_z2pae0.jpg</t>
+  </si>
+  <si>
+    <t>https://res.cloudinary.com/dq0buor0x/image/upload/v1771600417/2_itehpi.png|https://res.cloudinary.com/dq0buor0x/image/upload/v1771600416/1_q8biot.png|https://res.cloudinary.com/dq0buor0x/image/upload/v1771600411/4_urxufr.jpg|https://res.cloudinary.com/dq0buor0x/image/upload/v1771600411/3_qsiekh.jpg</t>
+  </si>
+  <si>
+    <t>https://res.cloudinary.com/dq0buor0x/image/upload/v1771600436/2_trphg7.png|https://res.cloudinary.com/dq0buor0x/image/upload/v1771600435/1_xl3wpw.png</t>
+  </si>
+  <si>
+    <t>Escritorio con alzada</t>
+  </si>
+  <si>
+    <t>escritorio-alzada</t>
+  </si>
+  <si>
+    <t>dormitorio</t>
+  </si>
+  <si>
+    <t>Escritorio</t>
+  </si>
+  <si>
+    <t>escritorio</t>
+  </si>
+  <si>
+    <t>https://res.cloudinary.com/dq0buor0x/image/upload/v1771600420/2_zksbks.png|https://res.cloudinary.com/dq0buor0x/image/upload/v1771600416/1_h4hc1f.png</t>
+  </si>
+  <si>
+    <t>https://res.cloudinary.com/dq0buor0x/image/upload/v1771600419/1_emimzh.png|https://res.cloudinary.com/dq0buor0x/image/upload/v1771600409/2_nnvl0f.png|https://res.cloudinary.com/dq0buor0x/image/upload/v1771600408/1_cewnvo.jpg</t>
+  </si>
+  <si>
+    <t>Bajo mesada</t>
+  </si>
+  <si>
+    <t>bajo-mesada</t>
+  </si>
+  <si>
+    <t>comedor</t>
+  </si>
+  <si>
+    <t>https://res.cloudinary.com/dq0buor0x/image/upload/v1771600417/1_lr8svh.png|https://res.cloudinary.com/dq0buor0x/image/upload/v1771600420/2_syevlg.png</t>
+  </si>
+  <si>
+    <t>https://res.cloudinary.com/dq0buor0x/image/upload/v1771600415/3_qdenjt.png|https://res.cloudinary.com/dq0buor0x/image/upload/v1771600406/2_mguxis.png</t>
+  </si>
+  <si>
+    <t>https://res.cloudinary.com/dq0buor0x/image/upload/v1771600416/1_aw1kc0.png|https://res.cloudinary.com/dq0buor0x/image/upload/v1771600410/2_dlpvrw.png|https://res.cloudinary.com/dq0buor0x/image/upload/v1771600410/3_xj1xit.jpg</t>
+  </si>
+  <si>
+    <t>https://res.cloudinary.com/dq0buor0x/image/upload/v1771600415/3_utpuiy.png|https://res.cloudinary.com/dq0buor0x/image/upload/v1771600415/2_mr1tty.png|https://res.cloudinary.com/dq0buor0x/image/upload/v1771600409/1_ruf1ec.png|https://res.cloudinary.com/dq0buor0x/image/upload/v1771600408/4_ertfv3.jpg</t>
+  </si>
+  <si>
+    <t>https://res.cloudinary.com/dq0buor0x/image/upload/v1771600415/juego_de_living_oish5k.png|https://res.cloudinary.com/dq0buor0x/image/upload/v1771600411/1_p0hsen.png</t>
+  </si>
+  <si>
+    <t>https://res.cloudinary.com/dq0buor0x/image/upload/v1771600409/2_byanty.png|https://res.cloudinary.com/dq0buor0x/image/upload/v1771600407/1_zxhpk5.jpg</t>
+  </si>
+  <si>
+    <t>https://res.cloudinary.com/dq0buor0x/image/upload/v1771600407/1_lq5hlt.png|https://res.cloudinary.com/dq0buor0x/image/upload/v1771600407/4_jxrqge.png|https://res.cloudinary.com/dq0buor0x/image/upload/v1771600407/3_hpjnev.jpg</t>
+  </si>
+  <si>
+    <t>https://res.cloudinary.com/dq0buor0x/image/upload/v1771600405/1_o4eri7.png|https://res.cloudinary.com/dq0buor0x/image/upload/v1771600405/2_lytghn.jpg</t>
+  </si>
+  <si>
+    <t>https://res.cloudinary.com/dq0buor0x/image/upload/v1771600410/1_rec6rd.png|https://res.cloudinary.com/dq0buor0x/image/upload/v1771600408/3_ittljn.jpg|https://res.cloudinary.com/dq0buor0x/image/upload/v1771600407/2_vgwvx4.jpg</t>
+  </si>
+  <si>
+    <t>https://res.cloudinary.com/dq0buor0x/image/upload/v1771600414/2_icpzd4.png|https://res.cloudinary.com/dq0buor0x/image/upload/v1771600413/1_yvcxfh.png</t>
+  </si>
+  <si>
+    <t>https://res.cloudinary.com/dq0buor0x/image/upload/v1771600414/2_lzfb8p.png|https://res.cloudinary.com/dq0buor0x/image/upload/v1771600409/1_hw6eat.png</t>
+  </si>
+  <si>
+    <t>https://res.cloudinary.com/dq0buor0x/image/upload/v1771600413/2_zkbsuk.png|https://res.cloudinary.com/dq0buor0x/image/upload/v1771600407/1_zrsb1y.png|https://res.cloudinary.com/dq0buor0x/image/upload/v1771600407/3_retzcl.jpg</t>
+  </si>
+  <si>
+    <t>https://res.cloudinary.com/dq0buor0x/image/upload/v1771600419/2_pqjtvj.png|https://res.cloudinary.com/dq0buor0x/image/upload/v1771600417/1_xdgxxy.png|https://res.cloudinary.com/dq0buor0x/image/upload/v1771600411/4_zfdpld.jpg|https://res.cloudinary.com/dq0buor0x/image/upload/v1771600410/2_k6fw8u.png</t>
+  </si>
+  <si>
+    <t>https://res.cloudinary.com/dq0buor0x/image/upload/v1771600411/2_kuoakf.png|https://res.cloudinary.com/dq0buor0x/image/upload/v1771600405/1_je5y81.png</t>
+  </si>
+  <si>
+    <t>https://res.cloudinary.com/dq0buor0x/image/upload/v1771600404/1_fn1sl6.png|https://res.cloudinary.com/dq0buor0x/image/upload/v1771600404/2_bf8dsz.png</t>
+  </si>
+  <si>
+    <t>Silla respaldo tablero</t>
+  </si>
+  <si>
+    <t>silla-tablero</t>
+  </si>
+  <si>
+    <t>https://res.cloudinary.com/dq0buor0x/image/upload/v1771600404/1_drik7d.png|https://res.cloudinary.com/dq0buor0x/image/upload/v1771600405/2_z2rmrs.png</t>
+  </si>
+  <si>
+    <t>Silla aurelia</t>
+  </si>
+  <si>
+    <t>silla-aurelia</t>
+  </si>
+  <si>
+    <t>mesa-redonda</t>
+  </si>
+  <si>
+    <t>con 4 sillas aurelia</t>
+  </si>
+  <si>
+    <t>Mesa redonda c/ sillas aurelia</t>
+  </si>
+  <si>
+    <t>https://res.cloudinary.com/dq0buor0x/image/upload/v1771600435/2_ual1do.png|https://res.cloudinary.com/dq0buor0x/image/upload/v1771600418/1_vjityk.png</t>
+  </si>
+  <si>
+    <t>Cama camara s/cajon</t>
+  </si>
+  <si>
+    <t>Cama camera c/ cajonera</t>
+  </si>
+  <si>
+    <t>cama-camera-c</t>
+  </si>
+  <si>
+    <t>https://res.cloudinary.com/dq0buor0x/image/upload/v1771600417/1_uhglku.png|https://res.cloudinary.com/dq0buor0x/image/upload/v1771600416/2_e8jky5.png</t>
+  </si>
+  <si>
+    <t>Banqueta</t>
+  </si>
+  <si>
+    <t>banqueta</t>
+  </si>
+  <si>
+    <t>https://res.cloudinary.com/dq0buor0x/image/upload/v1771600435/1_qoqteh.png|https://res.cloudinary.com/dq0buor0x/image/upload/v1771600413/2_dbx8ae.png</t>
+  </si>
+  <si>
+    <t>Puerta simple con marco</t>
+  </si>
+  <si>
+    <t>puerta-marco</t>
+  </si>
+  <si>
+    <t>Puerta simple con marco y lateral de vidrio</t>
+  </si>
+  <si>
+    <t>puerta-marco-vidrio</t>
+  </si>
+  <si>
+    <t>https://res.cloudinary.com/dq0buor0x/image/upload/v1771600420/1_yxzsmg.png|https://res.cloudinary.com/dq0buor0x/image/upload/v1771600412/WhatsApp_Image_2026-02-17_at_20.30.18_w7kiof.jpg</t>
+  </si>
+  <si>
+    <t>https://res.cloudinary.com/dq0buor0x/image/upload/v1771600420/2_mkttbz.png|https://res.cloudinary.com/dq0buor0x/image/upload/v1771600412/WhatsApp_Image_2026-02-17_at_20.30.17_jdywp1.jpg</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -303,13 +423,27 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -321,13 +455,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -640,18 +779,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{782928CF-F54E-442D-B269-B9A0D9153C0B}">
-  <dimension ref="A1:L27"/>
+  <dimension ref="A1:L31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.85546875" customWidth="1"/>
-    <col min="2" max="2" width="24.42578125" customWidth="1"/>
-    <col min="3" max="3" width="20" customWidth="1"/>
-    <col min="5" max="5" width="29.7109375" customWidth="1"/>
+    <col min="2" max="2" width="40.7109375" customWidth="1"/>
+    <col min="3" max="3" width="29.7109375" customWidth="1"/>
+    <col min="5" max="5" width="50.7109375" customWidth="1"/>
+    <col min="12" max="12" width="92.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
@@ -696,14 +836,14 @@
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
-        <v>28</v>
+      <c r="B2" s="2" t="s">
+        <v>26</v>
       </c>
       <c r="C2" t="s">
         <v>11</v>
       </c>
       <c r="D2" t="s">
-        <v>12</v>
+        <v>75</v>
       </c>
       <c r="E2" t="s">
         <v>13</v>
@@ -725,13 +865,16 @@
       </c>
       <c r="K2" t="s">
         <v>14</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C3" t="s">
@@ -760,20 +903,23 @@
       </c>
       <c r="K3" t="s">
         <v>14</v>
+      </c>
+      <c r="L3" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="3" t="s">
         <v>20</v>
       </c>
       <c r="C4" t="s">
         <v>19</v>
       </c>
       <c r="D4" t="s">
-        <v>12</v>
+        <v>76</v>
       </c>
       <c r="E4" t="s">
         <v>21</v>
@@ -796,203 +942,221 @@
       <c r="K4" t="s">
         <v>14</v>
       </c>
+      <c r="L4" s="1" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>12</v>
+        <v>83</v>
       </c>
       <c r="E5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F5">
-        <v>2000000</v>
+        <v>900000</v>
       </c>
       <c r="G5">
-        <v>2.5</v>
+        <v>0.9</v>
       </c>
       <c r="H5">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="I5">
         <v>2</v>
       </c>
-      <c r="I5">
-        <v>0.43</v>
-      </c>
       <c r="J5">
-        <v>300</v>
+        <v>80</v>
       </c>
       <c r="K5" t="s">
         <v>14</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>25</v>
+        <v>6</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>115</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>12</v>
+        <v>83</v>
       </c>
       <c r="E6" t="s">
-        <v>27</v>
+        <v>72</v>
       </c>
       <c r="F6">
-        <v>900000</v>
+        <v>750000</v>
       </c>
       <c r="G6">
-        <v>0.9</v>
+        <v>2</v>
       </c>
       <c r="H6">
         <v>1.1000000000000001</v>
       </c>
       <c r="I6">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="J6">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="K6" t="s">
         <v>14</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>29</v>
+        <v>8</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>81</v>
       </c>
       <c r="C7" t="s">
-        <v>30</v>
+        <v>82</v>
       </c>
       <c r="D7" t="s">
         <v>12</v>
       </c>
       <c r="E7" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="F7">
-        <v>750000</v>
+        <v>650000</v>
       </c>
       <c r="G7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H7">
-        <v>1.1000000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="I7">
-        <v>1.5</v>
+        <v>0.6</v>
       </c>
       <c r="J7">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="K7" t="s">
         <v>14</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
-        <v>46</v>
+        <v>9</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>84</v>
       </c>
       <c r="C8" t="s">
-        <v>47</v>
+        <v>85</v>
       </c>
       <c r="D8" t="s">
         <v>12</v>
       </c>
       <c r="E8" t="s">
-        <v>48</v>
+        <v>25</v>
       </c>
       <c r="F8">
         <v>600000</v>
       </c>
       <c r="G8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H8">
-        <v>1.1000000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="I8">
-        <v>1.5</v>
+        <v>0.6</v>
       </c>
       <c r="J8">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="K8" t="s">
         <v>14</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9" t="s">
-        <v>32</v>
+        <v>10</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>29</v>
       </c>
       <c r="C9" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D9" t="s">
-        <v>12</v>
+        <v>76</v>
       </c>
       <c r="E9" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="F9">
-        <v>650000</v>
+        <v>500000</v>
       </c>
       <c r="G9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H9">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="I9">
-        <v>0.6</v>
+        <v>0.3</v>
       </c>
       <c r="J9">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="K9" t="s">
         <v>14</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10" t="s">
-        <v>33</v>
+        <v>11</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>88</v>
       </c>
       <c r="C10" t="s">
-        <v>35</v>
+        <v>89</v>
       </c>
       <c r="D10" t="s">
-        <v>12</v>
+        <v>90</v>
       </c>
       <c r="E10" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="F10">
-        <v>600000</v>
+        <v>300000</v>
       </c>
       <c r="G10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H10">
         <v>0.8</v>
@@ -1001,424 +1165,460 @@
         <v>0.6</v>
       </c>
       <c r="J10">
-        <v>60</v>
+        <v>200</v>
       </c>
       <c r="K10" t="s">
         <v>14</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="B11" t="s">
-        <v>37</v>
+        <v>12</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>31</v>
       </c>
       <c r="C11" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="D11" t="s">
-        <v>12</v>
+        <v>75</v>
       </c>
       <c r="E11" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="F11">
-        <v>500000</v>
+        <v>700000</v>
       </c>
       <c r="G11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H11">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="I11">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="J11">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="K11" t="s">
         <v>14</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>11</v>
-      </c>
-      <c r="B12" t="s">
-        <v>39</v>
+        <v>13</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>34</v>
       </c>
       <c r="C12" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="D12" t="s">
-        <v>12</v>
+        <v>75</v>
       </c>
       <c r="E12" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F12">
-        <v>300000</v>
+        <v>850000</v>
       </c>
       <c r="G12">
-        <v>2</v>
+        <v>0.7</v>
       </c>
       <c r="H12">
-        <v>0.8</v>
+        <v>1.2</v>
       </c>
       <c r="I12">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="J12">
-        <v>200</v>
+        <v>80</v>
       </c>
       <c r="K12" t="s">
         <v>14</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>12</v>
-      </c>
-      <c r="B13" t="s">
-        <v>41</v>
+        <v>14</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>36</v>
       </c>
       <c r="C13" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="D13" t="s">
-        <v>12</v>
+        <v>76</v>
       </c>
       <c r="E13" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="F13">
-        <v>700000</v>
+        <v>2500000</v>
       </c>
       <c r="G13">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="H13">
         <v>0.8</v>
       </c>
       <c r="I13">
-        <v>0.4</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="J13">
-        <v>70</v>
+        <v>150</v>
       </c>
       <c r="K13" t="s">
         <v>14</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>13</v>
-      </c>
-      <c r="B14" t="s">
-        <v>44</v>
+        <v>15</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>39</v>
       </c>
       <c r="C14" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="D14" t="s">
         <v>12</v>
       </c>
       <c r="E14" t="s">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="F14">
-        <v>850000</v>
+        <v>400000</v>
       </c>
       <c r="G14">
-        <v>0.7</v>
+        <v>1.8</v>
       </c>
       <c r="H14">
-        <v>1.2</v>
+        <v>0.95</v>
       </c>
       <c r="I14">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="J14">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="K14" t="s">
         <v>14</v>
+      </c>
+      <c r="L14" s="1" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>14</v>
-      </c>
-      <c r="B15" t="s">
-        <v>49</v>
+        <v>16</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>42</v>
       </c>
       <c r="C15" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="D15" t="s">
         <v>12</v>
       </c>
       <c r="E15" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="F15">
-        <v>2500000</v>
+        <v>250000</v>
       </c>
       <c r="G15">
-        <v>2.5</v>
+        <v>0.6</v>
       </c>
       <c r="H15">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
       <c r="I15">
-        <v>1.1000000000000001</v>
+        <v>0.6</v>
       </c>
       <c r="J15">
-        <v>150</v>
+        <v>20</v>
       </c>
       <c r="K15" t="s">
         <v>14</v>
+      </c>
+      <c r="L15" s="1" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>15</v>
-      </c>
-      <c r="B16" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C16" t="s">
+        <v>46</v>
+      </c>
+      <c r="D16" t="s">
+        <v>75</v>
+      </c>
+      <c r="E16" t="s">
+        <v>47</v>
+      </c>
+      <c r="F16">
+        <v>650000</v>
+      </c>
+      <c r="G16">
+        <v>2.1</v>
+      </c>
+      <c r="H16">
+        <v>1.6</v>
+      </c>
+      <c r="I16">
+        <v>0.9</v>
+      </c>
+      <c r="J16">
+        <v>80</v>
+      </c>
+      <c r="K16" t="s">
+        <v>14</v>
+      </c>
+      <c r="L16" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>18</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C17" t="s">
+        <v>49</v>
+      </c>
+      <c r="D17" t="s">
+        <v>75</v>
+      </c>
+      <c r="E17" t="s">
+        <v>50</v>
+      </c>
+      <c r="F17">
+        <v>350000</v>
+      </c>
+      <c r="G17">
+        <v>1.4</v>
+      </c>
+      <c r="H17">
+        <v>0.75</v>
+      </c>
+      <c r="I17">
+        <v>0.4</v>
+      </c>
+      <c r="J17">
+        <v>60</v>
+      </c>
+      <c r="K17" t="s">
+        <v>14</v>
+      </c>
+      <c r="L17" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>19</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C18" t="s">
         <v>52</v>
       </c>
-      <c r="C16" t="s">
+      <c r="D18" t="s">
+        <v>75</v>
+      </c>
+      <c r="E18" t="s">
         <v>53</v>
       </c>
-      <c r="D16" t="s">
-        <v>12</v>
-      </c>
-      <c r="E16" t="s">
-        <v>57</v>
-      </c>
-      <c r="F16">
-        <v>400000</v>
-      </c>
-      <c r="G16">
-        <v>1.8</v>
-      </c>
-      <c r="H16">
-        <v>0.95</v>
-      </c>
-      <c r="I16">
+      <c r="F18">
+        <v>120000</v>
+      </c>
+      <c r="G18">
+        <v>0.4</v>
+      </c>
+      <c r="H18">
         <v>0.6</v>
       </c>
-      <c r="J16">
-        <v>40</v>
-      </c>
-      <c r="K16" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>16</v>
-      </c>
-      <c r="B17" t="s">
+      <c r="I18">
+        <v>0.35</v>
+      </c>
+      <c r="J18">
+        <v>25</v>
+      </c>
+      <c r="K18" t="s">
+        <v>14</v>
+      </c>
+      <c r="L18" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>20</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C19" t="s">
         <v>55</v>
-      </c>
-      <c r="C17" t="s">
-        <v>54</v>
-      </c>
-      <c r="D17" t="s">
-        <v>12</v>
-      </c>
-      <c r="E17" t="s">
-        <v>56</v>
-      </c>
-      <c r="F17">
-        <v>250000</v>
-      </c>
-      <c r="G17">
-        <v>0.6</v>
-      </c>
-      <c r="H17">
-        <v>0.95</v>
-      </c>
-      <c r="I17">
-        <v>0.6</v>
-      </c>
-      <c r="J17">
-        <v>20</v>
-      </c>
-      <c r="K17" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>17</v>
-      </c>
-      <c r="B18" t="s">
-        <v>58</v>
-      </c>
-      <c r="C18" t="s">
-        <v>59</v>
-      </c>
-      <c r="D18" t="s">
-        <v>12</v>
-      </c>
-      <c r="E18" t="s">
-        <v>60</v>
-      </c>
-      <c r="F18">
-        <v>650000</v>
-      </c>
-      <c r="G18">
-        <v>2.1</v>
-      </c>
-      <c r="H18">
-        <v>1.6</v>
-      </c>
-      <c r="I18">
-        <v>0.9</v>
-      </c>
-      <c r="J18">
-        <v>80</v>
-      </c>
-      <c r="K18" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>18</v>
-      </c>
-      <c r="B19" t="s">
-        <v>61</v>
-      </c>
-      <c r="C19" t="s">
-        <v>62</v>
       </c>
       <c r="D19" t="s">
         <v>12</v>
       </c>
       <c r="E19" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="F19">
-        <v>350000</v>
+        <v>640000</v>
       </c>
       <c r="G19">
-        <v>1.4</v>
+        <v>1</v>
       </c>
       <c r="H19">
-        <v>0.75</v>
+        <v>1.7</v>
       </c>
       <c r="I19">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="J19">
+        <v>80</v>
+      </c>
+      <c r="K19" t="s">
+        <v>14</v>
+      </c>
+      <c r="L19" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>21</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C20" t="s">
+        <v>58</v>
+      </c>
+      <c r="D20" t="s">
+        <v>75</v>
+      </c>
+      <c r="E20" t="s">
+        <v>59</v>
+      </c>
+      <c r="F20">
+        <v>2000000</v>
+      </c>
+      <c r="G20">
+        <v>2</v>
+      </c>
+      <c r="H20">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="I20">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="J20">
+        <v>200</v>
+      </c>
+      <c r="K20" t="s">
+        <v>14</v>
+      </c>
+      <c r="L20" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>22</v>
+      </c>
+      <c r="B21" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="K19" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>19</v>
-      </c>
-      <c r="B20" t="s">
-        <v>64</v>
-      </c>
-      <c r="C20" t="s">
-        <v>65</v>
-      </c>
-      <c r="D20" t="s">
-        <v>12</v>
-      </c>
-      <c r="E20" t="s">
-        <v>66</v>
-      </c>
-      <c r="F20">
-        <v>120000</v>
-      </c>
-      <c r="G20">
-        <v>0.4</v>
-      </c>
-      <c r="H20">
-        <v>0.6</v>
-      </c>
-      <c r="I20">
-        <v>0.35</v>
-      </c>
-      <c r="J20">
-        <v>25</v>
-      </c>
-      <c r="K20" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>20</v>
-      </c>
-      <c r="B21" t="s">
-        <v>67</v>
-      </c>
       <c r="C21" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="D21" t="s">
         <v>12</v>
       </c>
       <c r="E21" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="F21">
-        <v>640000</v>
+        <v>300000</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="H21">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="I21">
         <v>0.3</v>
       </c>
       <c r="J21">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="K21" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L21" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>21</v>
-      </c>
-      <c r="B22" t="s">
-        <v>70</v>
+        <v>23</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>63</v>
       </c>
       <c r="C22" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="D22" t="s">
         <v>12</v>
       </c>
       <c r="E22" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="F22">
-        <v>2000000</v>
+        <v>1450000</v>
       </c>
       <c r="G22">
         <v>2</v>
       </c>
       <c r="H22">
-        <v>2.2999999999999998</v>
+        <v>2</v>
       </c>
       <c r="I22">
-        <v>0.55000000000000004</v>
+        <v>0.4</v>
       </c>
       <c r="J22">
         <v>200</v>
@@ -1426,183 +1626,385 @@
       <c r="K22" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L22" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>22</v>
-      </c>
-      <c r="B23" t="s">
-        <v>73</v>
+        <v>24</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>64</v>
       </c>
       <c r="C23" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="D23" t="s">
         <v>12</v>
       </c>
       <c r="E23" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="F23">
-        <v>300000</v>
+        <v>1400000</v>
       </c>
       <c r="G23">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="H23">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="I23">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="J23">
-        <v>70</v>
+        <v>200</v>
       </c>
       <c r="K23" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L23" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>23</v>
-      </c>
-      <c r="B24" t="s">
-        <v>76</v>
+        <v>25</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>71</v>
       </c>
       <c r="C24" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="D24" t="s">
         <v>12</v>
       </c>
       <c r="E24" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="F24">
-        <v>1450000</v>
+        <v>250000</v>
       </c>
       <c r="G24">
-        <v>2</v>
+        <v>1.4</v>
       </c>
       <c r="H24">
-        <v>2</v>
+        <v>0.7</v>
       </c>
       <c r="I24">
         <v>0.4</v>
       </c>
       <c r="J24">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="K24" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L24" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>24</v>
-      </c>
-      <c r="B25" t="s">
-        <v>77</v>
+        <v>26</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>109</v>
       </c>
       <c r="C25" t="s">
-        <v>79</v>
+        <v>110</v>
       </c>
       <c r="D25" t="s">
+        <v>76</v>
+      </c>
+      <c r="E25" t="s">
+        <v>22</v>
+      </c>
+      <c r="F25">
+        <v>25000</v>
+      </c>
+      <c r="G25">
+        <v>0.45</v>
+      </c>
+      <c r="H25">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="I25">
+        <v>0.45</v>
+      </c>
+      <c r="J25">
+        <v>20</v>
+      </c>
+      <c r="K25" t="s">
+        <v>14</v>
+      </c>
+      <c r="L25" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>27</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="C26" t="s">
+        <v>107</v>
+      </c>
+      <c r="D26" t="s">
+        <v>76</v>
+      </c>
+      <c r="E26" t="s">
+        <v>22</v>
+      </c>
+      <c r="F26">
+        <v>20000</v>
+      </c>
+      <c r="G26">
+        <v>0.45</v>
+      </c>
+      <c r="H26">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="I26">
+        <v>0.45</v>
+      </c>
+      <c r="J26">
+        <v>20</v>
+      </c>
+      <c r="K26" t="s">
+        <v>14</v>
+      </c>
+      <c r="L26" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>28</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="C27" t="s">
+        <v>111</v>
+      </c>
+      <c r="D27" t="s">
+        <v>76</v>
+      </c>
+      <c r="E27" t="s">
+        <v>112</v>
+      </c>
+      <c r="F27">
+        <v>700000</v>
+      </c>
+      <c r="G27">
+        <v>1</v>
+      </c>
+      <c r="H27">
+        <v>1.2</v>
+      </c>
+      <c r="I27">
+        <v>1</v>
+      </c>
+      <c r="J27">
+        <v>60</v>
+      </c>
+      <c r="K27" t="s">
+        <v>14</v>
+      </c>
+      <c r="L27" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>29</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="C28" t="s">
+        <v>117</v>
+      </c>
+      <c r="D28" t="s">
+        <v>75</v>
+      </c>
+      <c r="E28" t="s">
+        <v>25</v>
+      </c>
+      <c r="F28">
+        <v>1500000</v>
+      </c>
+      <c r="G28">
+        <v>2</v>
+      </c>
+      <c r="H28">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="I28">
+        <v>1.5</v>
+      </c>
+      <c r="J28">
+        <v>100</v>
+      </c>
+      <c r="K28" t="s">
+        <v>14</v>
+      </c>
+      <c r="L28" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>30</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="C29" t="s">
+        <v>120</v>
+      </c>
+      <c r="D29" t="s">
         <v>12</v>
       </c>
-      <c r="E25" t="s">
-        <v>81</v>
-      </c>
-      <c r="F25">
-        <v>1400000</v>
-      </c>
-      <c r="G25">
-        <v>2.5</v>
-      </c>
-      <c r="H25">
+      <c r="E29" t="s">
+        <v>22</v>
+      </c>
+      <c r="F29">
+        <v>20000</v>
+      </c>
+      <c r="G29">
+        <v>0.3</v>
+      </c>
+      <c r="H29">
+        <v>0.8</v>
+      </c>
+      <c r="I29">
+        <v>0.3</v>
+      </c>
+      <c r="J29">
+        <v>15</v>
+      </c>
+      <c r="K29" t="s">
+        <v>14</v>
+      </c>
+      <c r="L29" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>31</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="C30" t="s">
+        <v>123</v>
+      </c>
+      <c r="D30" t="s">
+        <v>12</v>
+      </c>
+      <c r="E30" t="s">
+        <v>22</v>
+      </c>
+      <c r="F30">
+        <v>200000</v>
+      </c>
+      <c r="G30">
+        <v>0.9</v>
+      </c>
+      <c r="H30">
         <v>2</v>
       </c>
-      <c r="I25">
-        <v>0.4</v>
-      </c>
-      <c r="J25">
-        <v>200</v>
-      </c>
-      <c r="K25" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A26">
-        <v>25</v>
-      </c>
-      <c r="B26" t="s">
-        <v>85</v>
-      </c>
-      <c r="C26" t="s">
-        <v>82</v>
-      </c>
-      <c r="D26" t="s">
+      <c r="I30">
+        <v>0.1</v>
+      </c>
+      <c r="J30">
+        <v>40</v>
+      </c>
+      <c r="K30" t="s">
+        <v>14</v>
+      </c>
+      <c r="L30" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>32</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="C31" t="s">
+        <v>125</v>
+      </c>
+      <c r="D31" t="s">
         <v>12</v>
       </c>
-      <c r="E26" t="s">
-        <v>83</v>
-      </c>
-      <c r="F26">
+      <c r="E31" t="s">
+        <v>22</v>
+      </c>
+      <c r="F31">
         <v>250000</v>
       </c>
-      <c r="G26">
-        <v>1.4</v>
-      </c>
-      <c r="H26">
-        <v>0.7</v>
-      </c>
-      <c r="I26">
-        <v>0.4</v>
-      </c>
-      <c r="J26">
-        <v>50</v>
-      </c>
-      <c r="K26" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A27">
-        <v>26</v>
-      </c>
-      <c r="B27" t="s">
-        <v>84</v>
-      </c>
-      <c r="C27" t="s">
-        <v>86</v>
-      </c>
-      <c r="D27" t="s">
-        <v>12</v>
-      </c>
-      <c r="E27" t="s">
-        <v>87</v>
-      </c>
-      <c r="F27">
-        <v>200000</v>
-      </c>
-      <c r="G27">
-        <v>1.4</v>
-      </c>
-      <c r="H27">
-        <v>0.7</v>
-      </c>
-      <c r="I27">
-        <v>0.4</v>
-      </c>
-      <c r="J27">
-        <v>50</v>
-      </c>
-      <c r="K27" t="s">
-        <v>14</v>
+      <c r="G31">
+        <v>0.9</v>
+      </c>
+      <c r="H31">
+        <v>2</v>
+      </c>
+      <c r="I31">
+        <v>0.1</v>
+      </c>
+      <c r="J31">
+        <v>60</v>
+      </c>
+      <c r="K31" t="s">
+        <v>14</v>
+      </c>
+      <c r="L31" s="1" t="s">
+        <v>127</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="L2" r:id="rId1" xr:uid="{377DE82F-92E1-42AE-AA4C-AD7129D20076}"/>
+    <hyperlink ref="L4" r:id="rId2" xr:uid="{FECB64CB-17C2-4349-8EA9-9DC4783B0DEB}"/>
+    <hyperlink ref="L5" r:id="rId3" xr:uid="{FD1FEBDF-6B10-41B2-BAB5-23305888E668}"/>
+    <hyperlink ref="L6" r:id="rId4" display="https://res.cloudinary.com/dq0buor0x/image/upload/v1771600417/2_itehpi.png|https://res.cloudinary.com/dq0buor0x/image/upload/v1771600416/1_q8biot.png|https://res.cloudinary.com/dq0buor0x/image/upload/v1771600411/4_urxufr.jpg|https://res.cloudinary.com/dq0buor0x/image/upload/v1771600411/3_qsiekh.jpg" xr:uid="{0163CBAD-ADC5-490F-89DA-659A63C0BB80}"/>
+    <hyperlink ref="L8" r:id="rId5" xr:uid="{8EAEA291-320B-42FF-B19E-850CD2249E20}"/>
+    <hyperlink ref="L7" r:id="rId6" xr:uid="{59E698B7-5961-46B4-8B54-8CA7587DB4E7}"/>
+    <hyperlink ref="L9" r:id="rId7" xr:uid="{158FD2E7-CDC9-48BB-B2EC-C86D12FE302B}"/>
+    <hyperlink ref="L10" r:id="rId8" xr:uid="{B938E79B-ADAD-44EB-8395-CC03698E61B6}"/>
+    <hyperlink ref="L11" r:id="rId9" xr:uid="{F05EA7A1-BA32-486B-AB4B-D6D2E8D1831A}"/>
+    <hyperlink ref="L12" r:id="rId10" xr:uid="{125A36DC-F7DE-4BC9-A824-49DDAE023DB2}"/>
+    <hyperlink ref="L13" r:id="rId11" display="https://res.cloudinary.com/dq0buor0x/image/upload/v1771600415/3_utpuiy.png|https://res.cloudinary.com/dq0buor0x/image/upload/v1771600415/2_mr1tty.png|https://res.cloudinary.com/dq0buor0x/image/upload/v1771600409/1_ruf1ec.png|https://res.cloudinary.com/dq0buor0x/image/upload/v1771600408/4_ertfv3.jpg" xr:uid="{3732D127-5DBF-4C72-B2A0-D912E72E5A15}"/>
+    <hyperlink ref="L14" r:id="rId12" xr:uid="{FC0DB5A8-68BC-4080-865F-3E9EC2F25A23}"/>
+    <hyperlink ref="L15" r:id="rId13" xr:uid="{20E9EE69-6BFF-4B4A-BCF6-9AE1203F2CF2}"/>
+    <hyperlink ref="L16" r:id="rId14" xr:uid="{6AA9AC91-2F8F-4E0A-82BA-D31412C13171}"/>
+    <hyperlink ref="L17" r:id="rId15" xr:uid="{50346DC5-C6D1-4D58-9ADD-F3823B3CC27B}"/>
+    <hyperlink ref="L18" r:id="rId16" xr:uid="{06EC3006-C7A6-4C85-B6D8-3EDC18D9EB84}"/>
+    <hyperlink ref="L19" r:id="rId17" xr:uid="{F1CAB2D3-411A-49B0-BBC0-D9492F7CD4AC}"/>
+    <hyperlink ref="L20" r:id="rId18" xr:uid="{89A8CE60-D84B-4717-9C91-19B157BA8730}"/>
+    <hyperlink ref="L21" r:id="rId19" xr:uid="{83BF0EE3-7352-4C2C-A156-9372E78E64BD}"/>
+    <hyperlink ref="L22" r:id="rId20" xr:uid="{78AD8293-FFB1-4A74-8760-B9240FB88028}"/>
+    <hyperlink ref="L23" r:id="rId21" display="https://res.cloudinary.com/dq0buor0x/image/upload/v1771600419/2_pqjtvj.png|https://res.cloudinary.com/dq0buor0x/image/upload/v1771600417/1_xdgxxy.png|https://res.cloudinary.com/dq0buor0x/image/upload/v1771600411/4_zfdpld.jpg|https://res.cloudinary.com/dq0buor0x/image/upload/v1771600410/2_k6fw8u.png" xr:uid="{84C9A4FC-2FCE-4BAA-8040-59CEE2DBCB58}"/>
+    <hyperlink ref="L24" r:id="rId22" xr:uid="{31B9C6EF-907D-4B47-9F11-B8A91BC6A507}"/>
+    <hyperlink ref="L25" r:id="rId23" xr:uid="{4FA3C900-E2A7-43BD-808A-7EA27A84ECEA}"/>
+    <hyperlink ref="L26" r:id="rId24" xr:uid="{572875F9-6C28-4E2D-9E22-83FF8B35B077}"/>
+    <hyperlink ref="L27" r:id="rId25" xr:uid="{63A11617-18BC-4DA7-AE94-174DFA4912D6}"/>
+    <hyperlink ref="L28" r:id="rId26" xr:uid="{EFFDEB43-A832-49BF-B31E-7DE6F1086A64}"/>
+    <hyperlink ref="L29" r:id="rId27" xr:uid="{7350DD97-DEA8-427C-914A-0E1D5311D21A}"/>
+    <hyperlink ref="L31" r:id="rId28" xr:uid="{BD957080-4559-4D68-9197-029151C64A7E}"/>
+    <hyperlink ref="L30" r:id="rId29" xr:uid="{9CF75A48-17AE-4D0B-B5E2-4AFDEA6879F8}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId30"/>
 </worksheet>
 </file>